--- a/5.Other/TONG_HOP_TON_KHO.xlsx
+++ b/5.Other/TONG_HOP_TON_KHO.xlsx
@@ -5,22 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TungNM\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5.Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72777540-D699-4159-81E3-832383104F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED05818D-CDBC-4CEF-8A0C-3E550347C767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Báo cáo" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="568">
   <si>
     <t>VT_DIODE_1N4007</t>
   </si>
@@ -1718,6 +1718,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Vỏ hộp TG102E</t>
+  </si>
+  <si>
+    <t>Không GPS</t>
+  </si>
+  <si>
+    <t>Có GPS</t>
   </si>
 </sst>
 </file>
@@ -1784,7 +1790,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1861,11 +1867,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFE3E3E3"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1888,6 +1903,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2206,47 +2224,48 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E383"/>
+  <dimension ref="A1:F383"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A233" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K243" sqref="K243"/>
+    <sheetView tabSelected="1" topLeftCell="A242" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H259" sqref="H259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.140625" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>378</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -2254,9 +2273,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="5" t="s">
         <v>129</v>
       </c>
@@ -5783,7 +5802,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="257" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B257" s="3" t="s">
         <v>544</v>
       </c>
@@ -5797,7 +5816,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="258" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B258" s="3" t="s">
         <v>544</v>
       </c>
@@ -5811,7 +5830,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="259" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B259" s="3" t="s">
         <v>544</v>
       </c>
@@ -5825,7 +5844,7 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="260" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B260" s="3" t="s">
         <v>544</v>
       </c>
@@ -5839,7 +5858,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="261" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B261" s="3" t="s">
         <v>544</v>
       </c>
@@ -5853,7 +5872,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="262" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B262" s="3" t="s">
         <v>544</v>
       </c>
@@ -5867,7 +5886,7 @@
         <v>4425</v>
       </c>
     </row>
-    <row r="263" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B263" s="3" t="s">
         <v>544</v>
       </c>
@@ -5881,7 +5900,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="264" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B264" s="3" t="s">
         <v>544</v>
       </c>
@@ -5895,7 +5914,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="265" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B265" s="3" t="s">
         <v>544</v>
       </c>
@@ -5909,7 +5928,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="266" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B266" s="3" t="s">
         <v>544</v>
       </c>
@@ -5923,7 +5942,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="267" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B267" s="3" t="s">
         <v>544</v>
       </c>
@@ -5937,7 +5956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B268" s="3" t="s">
         <v>544</v>
       </c>
@@ -5951,7 +5970,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="269" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B269" s="3" t="s">
         <v>544</v>
       </c>
@@ -5964,8 +5983,11 @@
       <c r="E269" s="7">
         <v>1096</v>
       </c>
-    </row>
-    <row r="270" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F269" s="9" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="270" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B270" s="3" t="s">
         <v>544</v>
       </c>
@@ -5978,8 +6000,11 @@
       <c r="E270" s="7">
         <v>164</v>
       </c>
-    </row>
-    <row r="271" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F270" s="9" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="271" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B271" s="3" t="s">
         <v>544</v>
       </c>
@@ -5992,8 +6017,11 @@
       <c r="E271" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="272" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F271" s="9" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="272" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B272" s="3" t="s">
         <v>544</v>
       </c>

--- a/5.Other/TONG_HOP_TON_KHO.xlsx
+++ b/5.Other/TONG_HOP_TON_KHO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5.Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED05818D-CDBC-4CEF-8A0C-3E550347C767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD86BDD-88F9-47EA-8D98-78E6C7C13393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2226,8 +2226,8 @@
   </sheetPr>
   <dimension ref="A1:F383"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H259" sqref="H259"/>
+    <sheetView tabSelected="1" topLeftCell="A350" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O359" sqref="O359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>

--- a/5.Other/TONG_HOP_TON_KHO.xlsx
+++ b/5.Other/TONG_HOP_TON_KHO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5.Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD86BDD-88F9-47EA-8D98-78E6C7C13393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218C7959-14EE-4B52-9C87-D9BE3B45730C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2226,8 +2226,8 @@
   </sheetPr>
   <dimension ref="A1:F383"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A350" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O359" sqref="O359"/>
+    <sheetView tabSelected="1" topLeftCell="A266" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C266" sqref="C266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>

--- a/5.Other/TONG_HOP_TON_KHO.xlsx
+++ b/5.Other/TONG_HOP_TON_KHO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5.Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218C7959-14EE-4B52-9C87-D9BE3B45730C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704BA08D-B0CB-404A-BAF9-8AA171990740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2226,8 +2226,8 @@
   </sheetPr>
   <dimension ref="A1:F383"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A266" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C266" sqref="C266"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
